--- a/src/main/resources/testdata/browserpage.xlsx
+++ b/src/main/resources/testdata/browserpage.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\intellijProjects\NopCommerce_dec9am\src\main\resources\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ECLIPSE PROJECTS\PAPARAO\src\main\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1647D022-2E0E-4C59-82B0-32C7F10899B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4E4D78-B7E7-44D3-B282-C16099F9A2E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
